--- a/BackTest/2020-01-12 BackTest DAD.xlsx
+++ b/BackTest/2020-01-12 BackTest DAD.xlsx
@@ -4616,14 +4616,20 @@
         <v>196.8833333333332</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>195.8</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4651,14 +4657,20 @@
         <v>196.7983333333332</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>194.8</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4686,14 +4698,20 @@
         <v>196.7233333333332</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>191.1</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4721,14 +4739,20 @@
         <v>196.5483333333332</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>194.5</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4763,7 +4787,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4798,7 +4826,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4833,7 +4865,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4868,7 +4904,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4896,18 +4936,16 @@
         <v>195.6616666666665</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>190.2</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M129" t="n">
@@ -4937,14 +4975,12 @@
         <v>195.5916666666665</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>192.9</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
@@ -4978,14 +5014,12 @@
         <v>195.4266666666665</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>189</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
@@ -5019,12 +5053,14 @@
         <v>195.3399999999998</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>187.2</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
@@ -5064,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>193.9</v>
+        <v>191.9</v>
       </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
@@ -5105,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>189</v>
+        <v>193.9</v>
       </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
@@ -5179,14 +5215,12 @@
         <v>195.0949999999998</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>188.1</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
@@ -5376,14 +5410,12 @@
         <v>194.5899999999998</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>189.6</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
@@ -5417,14 +5449,12 @@
         <v>194.4899999999998</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>192</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
@@ -5458,14 +5488,12 @@
         <v>194.4633333333332</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>192</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
@@ -5499,14 +5527,12 @@
         <v>194.3816666666665</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>193</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
@@ -5540,14 +5566,12 @@
         <v>194.2333333333332</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>193.8</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
@@ -5581,14 +5605,12 @@
         <v>194.1399999999998</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>193.8</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
@@ -5622,14 +5644,12 @@
         <v>194.0066666666665</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>193</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
@@ -6131,14 +6151,12 @@
         <v>191.9999999999999</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>189.9</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
@@ -6172,14 +6190,12 @@
         <v>191.8833333333332</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>187.1</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
@@ -6213,14 +6229,12 @@
         <v>191.6866666666666</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>188</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
@@ -6254,14 +6268,12 @@
         <v>191.5366666666666</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>188</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
@@ -6295,14 +6307,12 @@
         <v>191.4349999999999</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>189.9</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
@@ -6336,14 +6346,12 @@
         <v>191.3533333333333</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>189</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
@@ -6377,14 +6385,12 @@
         <v>191.2699999999999</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>191</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
@@ -6418,14 +6424,12 @@
         <v>191.2199999999999</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>190</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
@@ -6459,14 +6463,12 @@
         <v>191.1683333333332</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>189.9</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
@@ -6500,14 +6502,12 @@
         <v>191.0433333333332</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>189.9</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
@@ -6541,14 +6541,12 @@
         <v>190.9183333333332</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>187.4</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
@@ -6582,14 +6580,12 @@
         <v>190.7966666666666</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>187.6</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
@@ -6623,14 +6619,12 @@
         <v>190.7449999999999</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>187.6</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
@@ -6664,14 +6658,12 @@
         <v>190.6483333333333</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>189.9</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
@@ -6705,14 +6697,12 @@
         <v>190.6016666666666</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>188.1</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
@@ -6746,14 +6736,12 @@
         <v>190.5583333333333</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>190</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
@@ -6787,14 +6775,12 @@
         <v>190.5533333333333</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>191</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
@@ -6828,14 +6814,12 @@
         <v>190.5866666666666</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>192</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
@@ -6869,14 +6853,12 @@
         <v>190.6216666666666</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>192.1</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
@@ -6910,14 +6892,12 @@
         <v>190.7183333333333</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>194.7</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
@@ -6951,14 +6931,12 @@
         <v>190.7883333333333</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>195.7</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
@@ -6992,14 +6970,12 @@
         <v>190.8583333333333</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>200.5</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
@@ -7075,18 +7051,16 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7114,15 +7088,11 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7153,15 +7123,11 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7196,11 +7162,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7235,11 +7197,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7274,11 +7232,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7313,11 +7267,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7352,11 +7302,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7391,11 +7337,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7430,11 +7372,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7469,11 +7407,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7508,11 +7442,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7547,11 +7477,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7586,11 +7512,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7625,11 +7547,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7664,11 +7582,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7703,11 +7617,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7742,11 +7652,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7781,11 +7687,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7820,11 +7722,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7859,11 +7757,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7898,11 +7792,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7937,11 +7827,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7976,11 +7862,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8015,11 +7897,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8054,11 +7932,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8093,11 +7967,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8132,11 +8002,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8171,11 +8037,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8210,11 +8072,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8249,11 +8107,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8288,11 +8142,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8327,11 +8177,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8366,11 +8212,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8405,11 +8247,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8444,11 +8282,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8483,11 +8317,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8522,11 +8352,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8561,11 +8387,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8600,11 +8422,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8639,11 +8457,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8678,11 +8492,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8717,11 +8527,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8756,11 +8562,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8795,11 +8597,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8834,11 +8632,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8873,11 +8667,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8912,11 +8702,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8951,11 +8737,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8990,11 +8772,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9029,11 +8807,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9068,11 +8842,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9107,11 +8877,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9146,11 +8912,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9185,11 +8947,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9224,11 +8982,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9263,11 +9017,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9302,11 +9052,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9341,11 +9087,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9380,11 +9122,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9419,11 +9157,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9458,11 +9192,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9497,11 +9227,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9536,11 +9262,7 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9575,11 +9297,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9614,11 +9332,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9653,11 +9367,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9692,11 +9402,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9731,11 +9437,7 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9770,11 +9472,7 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9809,11 +9507,7 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9848,11 +9542,7 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9887,11 +9577,7 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9926,11 +9612,7 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9965,11 +9647,7 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10004,11 +9682,7 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10043,11 +9717,7 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10082,11 +9752,7 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10121,11 +9787,7 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10160,11 +9822,7 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10199,11 +9857,7 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10238,11 +9892,7 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10277,11 +9927,7 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10316,11 +9962,7 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10355,11 +9997,7 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10394,11 +10032,7 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10433,11 +10067,7 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10472,11 +10102,7 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10511,11 +10137,7 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10550,11 +10172,7 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10589,11 +10207,7 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10628,11 +10242,7 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10667,11 +10277,7 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10706,11 +10312,7 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10745,11 +10347,7 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10784,11 +10382,7 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10823,11 +10417,7 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10862,11 +10452,7 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10901,11 +10487,7 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10940,11 +10522,7 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10979,11 +10557,7 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -11018,11 +10592,7 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L284" t="inlineStr"/>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -11057,11 +10627,7 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L285" t="inlineStr"/>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11096,11 +10662,7 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11135,11 +10697,7 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11174,11 +10732,7 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11213,11 +10767,7 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11252,11 +10802,7 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11291,11 +10837,7 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11330,11 +10872,7 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11369,11 +10907,7 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L293" t="inlineStr"/>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11408,11 +10942,7 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L294" t="inlineStr"/>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11447,11 +10977,7 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11486,11 +11012,7 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L296" t="inlineStr"/>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11525,11 +11047,7 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L297" t="inlineStr"/>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11564,11 +11082,7 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L298" t="inlineStr"/>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11603,11 +11117,7 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L299" t="inlineStr"/>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11642,11 +11152,7 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L300" t="inlineStr"/>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11681,11 +11187,7 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11720,11 +11222,7 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L302" t="inlineStr"/>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11759,11 +11257,7 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L303" t="inlineStr"/>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11798,11 +11292,7 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L304" t="inlineStr"/>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11837,11 +11327,7 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L305" t="inlineStr"/>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11876,11 +11362,7 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L306" t="inlineStr"/>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11915,11 +11397,7 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L307" t="inlineStr"/>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11954,11 +11432,7 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L308" t="inlineStr"/>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11993,11 +11467,7 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L309" t="inlineStr"/>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -12032,11 +11502,7 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L310" t="inlineStr"/>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -12071,11 +11537,7 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L311" t="inlineStr"/>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -12110,11 +11572,7 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L312" t="inlineStr"/>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -12149,11 +11607,7 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L313" t="inlineStr"/>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -12188,11 +11642,7 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L314" t="inlineStr"/>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -12227,11 +11677,7 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L315" t="inlineStr"/>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -12266,11 +11712,7 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L316" t="inlineStr"/>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -12305,11 +11747,7 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L317" t="inlineStr"/>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -12344,11 +11782,7 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L318" t="inlineStr"/>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -12383,11 +11817,7 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L319" t="inlineStr"/>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -12422,11 +11852,7 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L320" t="inlineStr"/>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -12461,11 +11887,7 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L321" t="inlineStr"/>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12500,11 +11922,7 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L322" t="inlineStr"/>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12539,11 +11957,7 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L323" t="inlineStr"/>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12578,11 +11992,7 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L324" t="inlineStr"/>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12617,11 +12027,7 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L325" t="inlineStr"/>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12656,11 +12062,7 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L326" t="inlineStr"/>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12695,11 +12097,7 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L327" t="inlineStr"/>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12734,11 +12132,7 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L328" t="inlineStr"/>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12773,11 +12167,7 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L329" t="inlineStr"/>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12808,16 +12198,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M330" t="inlineStr"/>
+      <c r="L330" t="inlineStr"/>
+      <c r="M330" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12845,7 +12233,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>

--- a/BackTest/2020-01-12 BackTest DAD.xlsx
+++ b/BackTest/2020-01-12 BackTest DAD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -6622,10 +6622,14 @@
         <v>-308042.5918387941</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>191.1</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
@@ -6655,11 +6659,19 @@
         <v>-315529.114738794</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>192.9</v>
+      </c>
+      <c r="J190" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6688,11 +6700,19 @@
         <v>-306290.512738794</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="J191" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6721,11 +6741,19 @@
         <v>-306287.512738794</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="J192" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6757,8 +6785,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6790,8 +6824,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6823,8 +6863,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6853,11 +6899,19 @@
         <v>-319022.81329514</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>193.8</v>
+      </c>
+      <c r="J196" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6889,8 +6943,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6919,11 +6979,19 @@
         <v>-327915.34019514</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>189</v>
+      </c>
+      <c r="J198" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6952,11 +7020,19 @@
         <v>-327915.34019514</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>189</v>
+      </c>
+      <c r="J199" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6985,11 +7061,19 @@
         <v>-325264.35439514</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>189</v>
+      </c>
+      <c r="J200" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7018,11 +7102,19 @@
         <v>-325261.35439514</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="J201" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7051,11 +7143,19 @@
         <v>-311610.60249514</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>192</v>
+      </c>
+      <c r="J202" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7084,11 +7184,19 @@
         <v>-311610.60249514</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>193</v>
+      </c>
+      <c r="J203" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7117,11 +7225,19 @@
         <v>-311610.60249514</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>193</v>
+      </c>
+      <c r="J204" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7150,11 +7266,19 @@
         <v>-310833.56769514</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>193</v>
+      </c>
+      <c r="J205" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7183,11 +7307,19 @@
         <v>-322078.14859514</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>194.3</v>
+      </c>
+      <c r="J206" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7216,11 +7348,19 @@
         <v>-337579.98449514</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>193</v>
+      </c>
+      <c r="J207" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7252,8 +7392,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7285,8 +7431,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7318,8 +7470,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7351,8 +7509,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7384,8 +7548,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7417,8 +7587,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7450,8 +7626,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7480,11 +7662,19 @@
         <v>-246675.35559514</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="J215" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7513,11 +7703,19 @@
         <v>-266319.20369514</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="J216" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7546,11 +7744,19 @@
         <v>-253652.68679514</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="J217" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7579,11 +7785,19 @@
         <v>-261726.01879514</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="J218" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7612,15 +7826,19 @@
         <v>-260767.83089514</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>187</v>
       </c>
       <c r="J219" t="n">
-        <v>187</v>
-      </c>
-      <c r="K219" t="inlineStr"/>
+        <v>191.1</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7649,17 +7867,17 @@
         <v>-260780.19059514</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
         <v>189.9</v>
       </c>
       <c r="J220" t="n">
-        <v>187</v>
+        <v>191.1</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L220" t="n">
@@ -7690,17 +7908,17 @@
         <v>-260774.01079514</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
         <v>187.1</v>
       </c>
       <c r="J221" t="n">
-        <v>187</v>
+        <v>191.1</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L221" t="n">
@@ -7731,15 +7949,19 @@
         <v>-260774.01079514</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I222" t="n">
         <v>188</v>
       </c>
       <c r="J222" t="n">
-        <v>188</v>
-      </c>
-      <c r="K222" t="inlineStr"/>
+        <v>191.1</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7768,17 +7990,17 @@
         <v>-257752.51379514</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
         <v>188</v>
       </c>
       <c r="J223" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L223" t="n">
@@ -7809,17 +8031,17 @@
         <v>-256009.02849514</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>189.9</v>
       </c>
       <c r="J224" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L224" t="n">
@@ -7850,17 +8072,17 @@
         <v>-258935.96959514</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
         <v>191</v>
       </c>
       <c r="J225" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L225" t="n">
@@ -7891,13 +8113,13 @@
         <v>-261828.82299514</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>190.5</v>
       </c>
       <c r="J226" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -7932,13 +8154,13 @@
         <v>-262706.91069514</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>190</v>
       </c>
       <c r="J227" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -7973,13 +8195,13 @@
         <v>-272125.83859514</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>189.9</v>
       </c>
       <c r="J228" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8014,13 +8236,13 @@
         <v>-272125.83859514</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>187.4</v>
       </c>
       <c r="J229" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8055,13 +8277,13 @@
         <v>-271377.65279514</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>187.4</v>
       </c>
       <c r="J230" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8096,13 +8318,13 @@
         <v>-265602.5378951401</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>187.6</v>
       </c>
       <c r="J231" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8137,13 +8359,13 @@
         <v>-269411.4794951401</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>189.9</v>
       </c>
       <c r="J232" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8178,13 +8400,13 @@
         <v>-262999.4554951401</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>189</v>
       </c>
       <c r="J233" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8219,13 +8441,13 @@
         <v>-265101.8706951401</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>190</v>
       </c>
       <c r="J234" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8260,13 +8482,13 @@
         <v>-263556.9883951401</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235" t="n">
         <v>189.9</v>
       </c>
       <c r="J235" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8301,13 +8523,13 @@
         <v>-263556.9883951401</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>192</v>
       </c>
       <c r="J236" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8342,13 +8564,13 @@
         <v>-233849.1077951401</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>192</v>
       </c>
       <c r="J237" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -8383,13 +8605,11 @@
         <v>-232937.3521951401</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
-      </c>
-      <c r="I238" t="n">
-        <v>193</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -8424,11 +8644,13 @@
         <v>-140159.5487951401</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>195.7</v>
+      </c>
       <c r="J239" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -8467,7 +8689,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -8506,7 +8728,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -8545,7 +8767,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -8584,7 +8806,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -8623,7 +8845,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -8662,7 +8884,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -8701,7 +8923,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -8736,13 +8958,11 @@
         <v>-174561.2561678641</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I247" t="n">
-        <v>202.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -8781,7 +9001,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -8820,7 +9040,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -8859,7 +9079,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -8898,7 +9118,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -8937,7 +9157,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -8976,7 +9196,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9015,7 +9235,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9054,7 +9274,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9093,7 +9313,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9132,7 +9352,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9171,7 +9391,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9210,7 +9430,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9249,7 +9469,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9288,7 +9508,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9327,7 +9547,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9366,7 +9586,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9405,7 +9625,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9444,7 +9664,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9483,7 +9703,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9522,7 +9742,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9561,7 +9781,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9600,7 +9820,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -9639,7 +9859,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -9678,7 +9898,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -9717,7 +9937,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -9756,7 +9976,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -9795,7 +10015,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -9834,7 +10054,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -9873,7 +10093,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -9908,11 +10128,13 @@
         <v>-193645.1511911261</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>202.8</v>
+      </c>
       <c r="J277" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -9951,7 +10173,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -9990,7 +10212,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10029,7 +10251,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10068,7 +10290,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10107,7 +10329,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10146,7 +10368,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10185,7 +10407,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10224,7 +10446,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10263,7 +10485,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10302,7 +10524,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10341,7 +10563,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10380,7 +10602,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10419,7 +10641,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10458,7 +10680,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10497,7 +10719,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10536,7 +10758,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10575,7 +10797,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10614,7 +10836,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10653,7 +10875,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10692,7 +10914,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10731,7 +10953,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10770,7 +10992,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10809,7 +11031,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10848,7 +11070,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10887,7 +11109,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10926,7 +11148,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10965,7 +11187,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -11004,7 +11226,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -11043,7 +11265,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -11082,7 +11304,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11121,7 +11343,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11160,7 +11382,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11199,7 +11421,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11238,7 +11460,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11277,7 +11499,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11316,7 +11538,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11355,7 +11577,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11394,7 +11616,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11433,7 +11655,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11472,7 +11694,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11511,7 +11733,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11550,7 +11772,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11589,7 +11811,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11628,7 +11850,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11667,7 +11889,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11706,7 +11928,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11745,7 +11967,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11784,7 +12006,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11823,7 +12045,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11862,7 +12084,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11901,7 +12123,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11940,7 +12162,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11979,7 +12201,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -12018,7 +12240,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -12057,7 +12279,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -12096,7 +12318,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -12135,7 +12357,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -12174,7 +12396,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -12213,7 +12435,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -12252,7 +12474,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -12291,7 +12513,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -12330,7 +12552,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -12369,7 +12591,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -12408,7 +12630,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -12447,7 +12669,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -12486,7 +12708,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12525,7 +12747,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12564,7 +12786,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12603,7 +12825,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -12642,7 +12864,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12681,7 +12903,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12720,7 +12942,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12759,7 +12981,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12798,7 +13020,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12837,7 +13059,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12876,7 +13098,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -12915,7 +13137,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -12954,7 +13176,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -12993,7 +13215,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -13032,7 +13254,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -13071,7 +13293,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -13110,7 +13332,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -13149,7 +13371,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -13188,7 +13410,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -13227,7 +13449,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -13266,7 +13488,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -13305,7 +13527,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -13344,7 +13566,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -13383,7 +13605,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -13422,7 +13644,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -13461,7 +13683,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -13500,7 +13722,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -13539,7 +13761,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -13578,7 +13800,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -13617,7 +13839,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -13656,7 +13878,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -13695,7 +13917,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -13734,7 +13956,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -13773,7 +13995,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -13812,7 +14034,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -13851,7 +14073,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -13890,7 +14112,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -13929,7 +14151,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -13968,7 +14190,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -14003,11 +14225,11 @@
         <v>-107724.6911604421</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -14046,7 +14268,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -14081,11 +14303,11 @@
         <v>-104324.8299604421</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -14124,7 +14346,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -14163,7 +14385,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -14202,7 +14424,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -14237,11 +14459,11 @@
         <v>31729.9360284169</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -14276,11 +14498,11 @@
         <v>-2799.783371583104</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -14315,11 +14537,11 @@
         <v>-2799.783371583104</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -14358,7 +14580,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -14397,7 +14619,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -14436,7 +14658,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -14471,11 +14693,11 @@
         <v>9768.723428416895</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -14514,7 +14736,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -14549,11 +14771,11 @@
         <v>-8919.399171583105</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -14592,7 +14814,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -14631,7 +14853,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -14670,7 +14892,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -14709,7 +14931,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -14748,7 +14970,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -14783,21 +15005,23 @@
         <v>45445.6963698109</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>188</v>
+        <v>191.1</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L402" t="n">
-        <v>1</v>
-      </c>
-      <c r="M402" t="inlineStr"/>
+        <v>1.180243328100471</v>
+      </c>
+      <c r="M402" t="n">
+        <v>1.123258306538049</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -14822,17 +15046,11 @@
         <v>91167.6557305349</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>188</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14861,17 +15079,11 @@
         <v>65907.9408215119</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>188</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14900,17 +15112,11 @@
         <v>59283.8705215119</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>188</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14942,14 +15148,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>188</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14978,17 +15178,11 @@
         <v>52320.81992151191</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>188</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15017,17 +15211,11 @@
         <v>52328.05732151191</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>188</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15056,17 +15244,11 @@
         <v>52321.47322151191</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>188</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15095,17 +15277,11 @@
         <v>50123.81612151191</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>188</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15134,17 +15310,11 @@
         <v>38587.41252151191</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>188</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15173,17 +15343,11 @@
         <v>77213.20542151191</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>188</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15212,17 +15376,11 @@
         <v>76444.40235894092</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>188</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15251,17 +15409,11 @@
         <v>64028.70795894092</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>188</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15290,17 +15442,11 @@
         <v>64032.00675894092</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>188</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15329,17 +15475,11 @@
         <v>64025.09785894091</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>188</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15368,17 +15508,11 @@
         <v>62962.31545894091</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>188</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15410,14 +15544,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>188</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15446,17 +15574,11 @@
         <v>64547.20925894091</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>188</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15485,17 +15607,11 @@
         <v>67091.0357324059</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>188</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15524,17 +15640,11 @@
         <v>43159.1458481959</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>188</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15563,17 +15673,11 @@
         <v>41764.4538481959</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>188</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15605,14 +15709,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>188</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15644,14 +15742,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>188</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15680,17 +15772,11 @@
         <v>34057.7083481959</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>188</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15719,17 +15805,11 @@
         <v>36798.7610481959</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>188</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15758,17 +15838,11 @@
         <v>34232.8992481959</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>188</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15800,14 +15874,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>188</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15836,17 +15904,11 @@
         <v>41169.1035481959</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>188</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15875,17 +15937,11 @@
         <v>37476.67914819589</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>188</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15914,17 +15970,11 @@
         <v>61867.51974819589</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>188</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15953,17 +16003,11 @@
         <v>61341.99514819589</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>188</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15992,17 +16036,11 @@
         <v>61341.99514819589</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>188</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16031,17 +16069,11 @@
         <v>1492.257948195889</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>188</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16070,17 +16102,11 @@
         <v>-33247.78125180411</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>188</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16109,17 +16135,11 @@
         <v>-33188.82145180411</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>188</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16148,17 +16168,11 @@
         <v>-5779.450451804114</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>188</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16187,17 +16201,11 @@
         <v>-5885.317051804114</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>188</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16229,14 +16237,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>188</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16268,14 +16270,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>188</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16304,17 +16300,11 @@
         <v>-15062.10225180412</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>188</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16346,14 +16336,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>188</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16382,17 +16366,11 @@
         <v>-20439.99465180411</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>188</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16421,17 +16399,11 @@
         <v>-20414.47755180411</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>188</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16460,17 +16432,11 @@
         <v>-33906.24465180411</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>188</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16499,17 +16465,11 @@
         <v>-33737.19125180411</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>188</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16538,17 +16498,11 @@
         <v>-33737.19125180411</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>188</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16577,17 +16531,11 @@
         <v>-33732.59125180412</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>188</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16616,17 +16564,11 @@
         <v>-46178.91225180411</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>188</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16655,17 +16597,11 @@
         <v>-42226.00325180411</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>188</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16694,17 +16630,11 @@
         <v>-31682.24295180411</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>188</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16733,17 +16663,11 @@
         <v>-30942.20035180411</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>188</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16772,17 +16696,11 @@
         <v>-30942.20035180411</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>188</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16811,17 +16729,11 @@
         <v>-26470.98205180411</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>188</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16850,17 +16762,11 @@
         <v>-36594.0680518041</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>188</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16889,17 +16795,11 @@
         <v>-34503.10715180411</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>188</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16928,17 +16828,11 @@
         <v>-38980.6999518041</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>188</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16967,17 +16861,11 @@
         <v>-40644.74745180411</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>188</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17009,14 +16897,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>188</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17048,14 +16930,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>188</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17087,14 +16963,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>188</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17126,14 +16996,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>188</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17165,14 +17029,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>188</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17201,17 +17059,11 @@
         <v>-41050.29935180411</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>188</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17243,14 +17095,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>188</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17282,14 +17128,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>188</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17321,14 +17161,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>188</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17360,14 +17194,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>188</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17399,14 +17227,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>188</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17438,14 +17260,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>188</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17477,14 +17293,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>188</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17516,14 +17326,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>188</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17555,14 +17359,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>188</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17594,14 +17392,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>188</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17633,14 +17425,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>188</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17672,14 +17458,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>188</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17711,14 +17491,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>188</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17747,17 +17521,11 @@
         <v>-12202.71993986611</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>188</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17786,17 +17554,11 @@
         <v>-12202.71993986611</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>188</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17828,14 +17590,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>188</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17867,14 +17623,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>188</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17906,14 +17656,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>188</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17945,14 +17689,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>188</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17984,14 +17722,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>188</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18020,23 +17752,15 @@
         <v>14015.61465897089</v>
       </c>
       <c r="H485" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>188</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
-        <v>1.175851063829787</v>
-      </c>
-      <c r="M485" t="n">
-        <v>1.123258306538049</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
@@ -18094,7 +17818,7 @@
         <v>13683.32145897089</v>
       </c>
       <c r="H487" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18127,7 +17851,7 @@
         <v>13683.32145897089</v>
       </c>
       <c r="H488" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18160,7 +17884,7 @@
         <v>41318.25545897089</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18193,7 +17917,7 @@
         <v>41318.25545897089</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18226,7 +17950,7 @@
         <v>41250.25365897089</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18259,7 +17983,7 @@
         <v>12853.66775897089</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18292,7 +18016,7 @@
         <v>17004.77965897089</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18325,7 +18049,7 @@
         <v>16968.77965897089</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18358,7 +18082,7 @@
         <v>16570.47465897089</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18391,7 +18115,7 @@
         <v>18681.99895897089</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18424,7 +18148,7 @@
         <v>18528.39275897089</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18457,7 +18181,7 @@
         <v>18528.39275897089</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18490,7 +18214,7 @@
         <v>18337.06615897089</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18523,7 +18247,7 @@
         <v>18891.5364589709</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18556,7 +18280,7 @@
         <v>18891.5364589709</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18589,7 +18313,7 @@
         <v>19180.9328589709</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18622,7 +18346,7 @@
         <v>19950.7227589709</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18655,7 +18379,7 @@
         <v>20377.7884589709</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18688,7 +18412,7 @@
         <v>20377.7884589709</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18721,7 +18445,7 @@
         <v>20614.8597589709</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18754,7 +18478,7 @@
         <v>20614.8597589709</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18787,7 +18511,7 @@
         <v>18227.9569589709</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18820,7 +18544,7 @@
         <v>18688.30275897089</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18853,7 +18577,7 @@
         <v>19870.4648589709</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18886,7 +18610,7 @@
         <v>19420.4648589709</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18919,7 +18643,7 @@
         <v>19420.4648589709</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18952,7 +18676,7 @@
         <v>18287.6699552689</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18985,7 +18709,7 @@
         <v>21109.8002432299</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19381,7 +19105,7 @@
         <v>29069.2542515669</v>
       </c>
       <c r="H526" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19414,7 +19138,7 @@
         <v>28339.5808515669</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19447,7 +19171,7 @@
         <v>28339.5808515669</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19480,7 +19204,7 @@
         <v>37804.3510515669</v>
       </c>
       <c r="H529" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19513,7 +19237,7 @@
         <v>37454.9871515669</v>
       </c>
       <c r="H530" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19546,7 +19270,7 @@
         <v>36983.2354515669</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19579,7 +19303,7 @@
         <v>38435.2947515669</v>
       </c>
       <c r="H532" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19612,7 +19336,7 @@
         <v>38435.2947515669</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19645,7 +19369,7 @@
         <v>35703.0428515669</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19678,7 +19402,7 @@
         <v>35712.2275515669</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19711,7 +19435,7 @@
         <v>35173.0025515669</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19744,7 +19468,7 @@
         <v>26228.6629515669</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19777,7 +19501,7 @@
         <v>26698.6659515669</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19810,7 +19534,7 @@
         <v>26601.0034515669</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19843,7 +19567,7 @@
         <v>26534.3490515669</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19876,7 +19600,7 @@
         <v>21358.7263515669</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19909,7 +19633,7 @@
         <v>21358.7263515669</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19942,7 +19666,7 @@
         <v>-394.1115484330985</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19975,7 +19699,7 @@
         <v>1851.816920685902</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20008,7 +19732,7 @@
         <v>1854.116920685902</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20041,7 +19765,7 @@
         <v>-299.2340793140986</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20074,7 +19798,7 @@
         <v>-296.9340793140986</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20107,7 +19831,7 @@
         <v>2097.956520685902</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20140,7 +19864,7 @@
         <v>2097.956520685902</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20173,7 +19897,7 @@
         <v>1020.363420685901</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20206,7 +19930,7 @@
         <v>950.3112206859015</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20239,7 +19963,7 @@
         <v>-1491.238079314099</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20272,7 +19996,7 @@
         <v>-2050.968479314099</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20305,7 +20029,7 @@
         <v>-10286.8672793141</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20338,7 +20062,7 @@
         <v>-10284.5672793141</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20371,7 +20095,7 @@
         <v>-30834.9836793141</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20404,7 +20128,7 @@
         <v>-30834.9836793141</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20437,7 +20161,7 @@
         <v>-30883.3836793141</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20470,7 +20194,7 @@
         <v>-52194.1290793141</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20503,7 +20227,7 @@
         <v>-51047.0024793141</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20536,7 +20260,7 @@
         <v>-28852.8338793141</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20569,7 +20293,7 @@
         <v>-40724.44217931409</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20602,7 +20326,7 @@
         <v>-39833.23807931409</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20635,7 +20359,7 @@
         <v>-38823.92667931409</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20668,7 +20392,7 @@
         <v>-39880.41277931409</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20701,7 +20425,7 @@
         <v>-40353.82647931409</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20734,7 +20458,7 @@
         <v>-18089.42997931409</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20767,7 +20491,7 @@
         <v>-20410.60397931409</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20800,7 +20524,7 @@
         <v>-31660.91977931409</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20833,7 +20557,7 @@
         <v>-28574.20177931409</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20866,7 +20590,7 @@
         <v>-28574.20177931409</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20899,7 +20623,7 @@
         <v>-38590.66027931409</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20932,7 +20656,7 @@
         <v>-38569.84797931409</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20965,7 +20689,7 @@
         <v>-36377.13697931409</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20998,7 +20722,7 @@
         <v>-15761.65687931409</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -23583,6 +23307,6 @@
       <c r="M653" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest DAD.xlsx
+++ b/BackTest/2020-01-12 BackTest DAD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1408,7 +1408,7 @@
         <v>-39447.64199999996</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-39447.64199999996</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-41060.12669999996</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-46307.41899999996</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -6622,14 +6622,10 @@
         <v>-308042.5918387941</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="J189" t="n">
-        <v>191.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
@@ -6659,1555 +6655,1325 @@
         <v>-315529.114738794</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="C191" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="D191" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="E191" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="F191" t="n">
+        <v>9238.602000000001</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-306290.512738794</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>193.9</v>
+      </c>
+      <c r="C192" t="n">
+        <v>193.9</v>
+      </c>
+      <c r="D192" t="n">
+        <v>193.9</v>
+      </c>
+      <c r="E192" t="n">
+        <v>193.9</v>
+      </c>
+      <c r="F192" t="n">
+        <v>3</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-306287.512738794</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>189</v>
+      </c>
+      <c r="C193" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="D193" t="n">
+        <v>192</v>
+      </c>
+      <c r="E193" t="n">
+        <v>189</v>
+      </c>
+      <c r="F193" t="n">
+        <v>5745.5011</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-312033.013838794</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="C194" t="n">
+        <v>193.9</v>
+      </c>
+      <c r="D194" t="n">
+        <v>194</v>
+      </c>
+      <c r="E194" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1341.392943654</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-310691.62089514</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="C195" t="n">
+        <v>193.8</v>
+      </c>
+      <c r="D195" t="n">
+        <v>193.8</v>
+      </c>
+      <c r="E195" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="F195" t="n">
+        <v>8262.386</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-318954.00689514</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>189</v>
+      </c>
+      <c r="C196" t="n">
+        <v>193</v>
+      </c>
+      <c r="D196" t="n">
+        <v>193</v>
+      </c>
+      <c r="E196" t="n">
+        <v>189</v>
+      </c>
+      <c r="F196" t="n">
+        <v>68.8064</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-319022.81329514</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>193</v>
+      </c>
+      <c r="C197" t="n">
+        <v>189</v>
+      </c>
+      <c r="D197" t="n">
+        <v>193.6</v>
+      </c>
+      <c r="E197" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="F197" t="n">
+        <v>8892.526900000001</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-327915.34019514</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="C198" t="n">
+        <v>189</v>
+      </c>
+      <c r="D198" t="n">
+        <v>189</v>
+      </c>
+      <c r="E198" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="F198" t="n">
+        <v>762.5228</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-327915.34019514</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="C199" t="n">
+        <v>189</v>
+      </c>
+      <c r="D199" t="n">
+        <v>189</v>
+      </c>
+      <c r="E199" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="F199" t="n">
+        <v>6175.3391</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-327915.34019514</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>189.6</v>
+      </c>
+      <c r="C200" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="D200" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="E200" t="n">
+        <v>189.6</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2650.9858</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-325264.35439514</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>192</v>
+      </c>
+      <c r="C201" t="n">
+        <v>192</v>
+      </c>
+      <c r="D201" t="n">
+        <v>192</v>
+      </c>
+      <c r="E201" t="n">
+        <v>192</v>
+      </c>
+      <c r="F201" t="n">
+        <v>3</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-325261.35439514</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>192</v>
+      </c>
+      <c r="C202" t="n">
+        <v>193</v>
+      </c>
+      <c r="D202" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="E202" t="n">
+        <v>192</v>
+      </c>
+      <c r="F202" t="n">
+        <v>13650.7519</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-311610.60249514</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>193</v>
+      </c>
+      <c r="C203" t="n">
+        <v>193</v>
+      </c>
+      <c r="D203" t="n">
+        <v>193</v>
+      </c>
+      <c r="E203" t="n">
+        <v>193</v>
+      </c>
+      <c r="F203" t="n">
+        <v>357.7787</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-311610.60249514</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>193.8</v>
+      </c>
+      <c r="C204" t="n">
+        <v>193</v>
+      </c>
+      <c r="D204" t="n">
+        <v>193.8</v>
+      </c>
+      <c r="E204" t="n">
+        <v>193</v>
+      </c>
+      <c r="F204" t="n">
+        <v>2814.3452</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-311610.60249514</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>193.8</v>
+      </c>
+      <c r="C205" t="n">
+        <v>194.3</v>
+      </c>
+      <c r="D205" t="n">
+        <v>194.3</v>
+      </c>
+      <c r="E205" t="n">
+        <v>193.8</v>
+      </c>
+      <c r="F205" t="n">
+        <v>777.0348</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-310833.56769514</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>193</v>
+      </c>
+      <c r="C206" t="n">
+        <v>193</v>
+      </c>
+      <c r="D206" t="n">
+        <v>193</v>
+      </c>
+      <c r="E206" t="n">
+        <v>193</v>
+      </c>
+      <c r="F206" t="n">
+        <v>11244.5809</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-322078.14859514</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>193</v>
+      </c>
+      <c r="C207" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="D207" t="n">
+        <v>193</v>
+      </c>
+      <c r="E207" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="F207" t="n">
+        <v>15501.8359</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-337579.98449514</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="C208" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="D208" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="E208" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="F208" t="n">
+        <v>76495.3668</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-261084.61769514</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="C209" t="n">
         <v>192.9</v>
       </c>
-      <c r="J190" t="n">
+      <c r="D209" t="n">
+        <v>192.9</v>
+      </c>
+      <c r="E209" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="F209" t="n">
+        <v>35427.5909</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-225657.02679514</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>193</v>
+      </c>
+      <c r="C210" t="n">
+        <v>194.9</v>
+      </c>
+      <c r="D210" t="n">
+        <v>195</v>
+      </c>
+      <c r="E210" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="F210" t="n">
+        <v>17288.0176</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-208369.00919514</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>194.8</v>
+      </c>
+      <c r="C211" t="n">
+        <v>194.8</v>
+      </c>
+      <c r="D211" t="n">
+        <v>194.8</v>
+      </c>
+      <c r="E211" t="n">
+        <v>194.7</v>
+      </c>
+      <c r="F211" t="n">
+        <v>2367.8656</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-210736.87479514</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>194.8</v>
+      </c>
+      <c r="C212" t="n">
         <v>191.1</v>
       </c>
-      <c r="K190" t="inlineStr">
+      <c r="D212" t="n">
+        <v>194.8</v>
+      </c>
+      <c r="E212" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="F212" t="n">
+        <v>13673.3191</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-224410.19389514</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>190</v>
+      </c>
+      <c r="C213" t="n">
+        <v>190</v>
+      </c>
+      <c r="D213" t="n">
+        <v>190</v>
+      </c>
+      <c r="E213" t="n">
+        <v>190</v>
+      </c>
+      <c r="F213" t="n">
+        <v>5704.5112</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-230114.70509514</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>190</v>
+      </c>
+      <c r="C214" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="D214" t="n">
+        <v>190</v>
+      </c>
+      <c r="E214" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="F214" t="n">
+        <v>5191.8782</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-235306.58329514</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="C215" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="D215" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="E215" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="F215" t="n">
+        <v>11368.7723</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-246675.35559514</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="C216" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="D216" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="E216" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="F216" t="n">
+        <v>19643.8481</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-266319.20369514</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="C217" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="D217" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="E217" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="F217" t="n">
+        <v>12666.5169</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-253652.68679514</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="C218" t="n">
+        <v>187</v>
+      </c>
+      <c r="D218" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="E218" t="n">
+        <v>187</v>
+      </c>
+      <c r="F218" t="n">
+        <v>8073.332</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-261726.01879514</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="C219" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="D219" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="E219" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="F219" t="n">
+        <v>958.1879</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-260767.83089514</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="C220" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="D220" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="E220" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="F220" t="n">
+        <v>12.3597</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-260780.19059514</v>
+      </c>
+      <c r="H220" t="n">
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="J220" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>188</v>
+      </c>
+      <c r="C221" t="n">
+        <v>188</v>
+      </c>
+      <c r="D221" t="n">
+        <v>188</v>
+      </c>
+      <c r="E221" t="n">
+        <v>188</v>
+      </c>
+      <c r="F221" t="n">
+        <v>6.1798</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-260774.01079514</v>
+      </c>
+      <c r="H221" t="n">
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="J221" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>188</v>
+      </c>
+      <c r="C222" t="n">
+        <v>188</v>
+      </c>
+      <c r="D222" t="n">
+        <v>188</v>
+      </c>
+      <c r="E222" t="n">
+        <v>188</v>
+      </c>
+      <c r="F222" t="n">
+        <v>6.1799</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-260774.01079514</v>
+      </c>
+      <c r="H222" t="n">
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>188</v>
+      </c>
+      <c r="J222" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="C223" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="D223" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="E223" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="F223" t="n">
+        <v>3021.497</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-257752.51379514</v>
+      </c>
+      <c r="H223" t="n">
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>188</v>
+      </c>
+      <c r="J223" t="n">
+        <v>188</v>
+      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>189</v>
+      </c>
+      <c r="C224" t="n">
+        <v>191</v>
+      </c>
+      <c r="D224" t="n">
+        <v>191</v>
+      </c>
+      <c r="E224" t="n">
+        <v>189</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1743.4853</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-256009.02849514</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="J224" t="n">
+        <v>188</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>191</v>
+      </c>
+      <c r="C225" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="D225" t="n">
+        <v>191</v>
+      </c>
+      <c r="E225" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="F225" t="n">
+        <v>2926.9411</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-258935.96959514</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>191</v>
+      </c>
+      <c r="J225" t="n">
+        <v>188</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>190</v>
+      </c>
+      <c r="C226" t="n">
+        <v>190</v>
+      </c>
+      <c r="D226" t="n">
+        <v>190</v>
+      </c>
+      <c r="E226" t="n">
+        <v>190</v>
+      </c>
+      <c r="F226" t="n">
+        <v>2892.8534</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-261828.82299514</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="J226" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="C227" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="D227" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="E227" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="F227" t="n">
+        <v>878.0877</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-262706.91069514</v>
+      </c>
+      <c r="H227" t="n">
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>190</v>
+      </c>
+      <c r="J227" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="C228" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="D228" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="E228" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="F228" t="n">
+        <v>9418.927900000001</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-272125.83859514</v>
+      </c>
+      <c r="H228" t="n">
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>189.9</v>
+      </c>
+      <c r="J228" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="K228" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>191.9</v>
-      </c>
-      <c r="C191" t="n">
-        <v>191.9</v>
-      </c>
-      <c r="D191" t="n">
-        <v>191.9</v>
-      </c>
-      <c r="E191" t="n">
-        <v>187.3</v>
-      </c>
-      <c r="F191" t="n">
-        <v>9238.602000000001</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-306290.512738794</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="J191" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>193.9</v>
-      </c>
-      <c r="C192" t="n">
-        <v>193.9</v>
-      </c>
-      <c r="D192" t="n">
-        <v>193.9</v>
-      </c>
-      <c r="E192" t="n">
-        <v>193.9</v>
-      </c>
-      <c r="F192" t="n">
-        <v>3</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-306287.512738794</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>191.9</v>
-      </c>
-      <c r="J192" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>189</v>
-      </c>
-      <c r="C193" t="n">
-        <v>190.9</v>
-      </c>
-      <c r="D193" t="n">
-        <v>192</v>
-      </c>
-      <c r="E193" t="n">
-        <v>189</v>
-      </c>
-      <c r="F193" t="n">
-        <v>5745.5011</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-312033.013838794</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>189.9</v>
-      </c>
-      <c r="C194" t="n">
-        <v>193.9</v>
-      </c>
-      <c r="D194" t="n">
-        <v>194</v>
-      </c>
-      <c r="E194" t="n">
-        <v>189.9</v>
-      </c>
-      <c r="F194" t="n">
-        <v>1341.392943654</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-310691.62089514</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>188.1</v>
-      </c>
-      <c r="C195" t="n">
-        <v>193.8</v>
-      </c>
-      <c r="D195" t="n">
-        <v>193.8</v>
-      </c>
-      <c r="E195" t="n">
-        <v>188.1</v>
-      </c>
-      <c r="F195" t="n">
-        <v>8262.386</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-318954.00689514</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>189</v>
-      </c>
-      <c r="C196" t="n">
-        <v>193</v>
-      </c>
-      <c r="D196" t="n">
-        <v>193</v>
-      </c>
-      <c r="E196" t="n">
-        <v>189</v>
-      </c>
-      <c r="F196" t="n">
-        <v>68.8064</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-319022.81329514</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>193.8</v>
-      </c>
-      <c r="J196" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>193</v>
-      </c>
-      <c r="C197" t="n">
-        <v>189</v>
-      </c>
-      <c r="D197" t="n">
-        <v>193.6</v>
-      </c>
-      <c r="E197" t="n">
-        <v>188.5</v>
-      </c>
-      <c r="F197" t="n">
-        <v>8892.526900000001</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-327915.34019514</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>188.5</v>
-      </c>
-      <c r="C198" t="n">
-        <v>189</v>
-      </c>
-      <c r="D198" t="n">
-        <v>189</v>
-      </c>
-      <c r="E198" t="n">
-        <v>187.6</v>
-      </c>
-      <c r="F198" t="n">
-        <v>762.5228</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-327915.34019514</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>189</v>
-      </c>
-      <c r="J198" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="C199" t="n">
-        <v>189</v>
-      </c>
-      <c r="D199" t="n">
-        <v>189</v>
-      </c>
-      <c r="E199" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="F199" t="n">
-        <v>6175.3391</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-327915.34019514</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>189</v>
-      </c>
-      <c r="J199" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>189.6</v>
-      </c>
-      <c r="C200" t="n">
-        <v>189.7</v>
-      </c>
-      <c r="D200" t="n">
-        <v>189.7</v>
-      </c>
-      <c r="E200" t="n">
-        <v>189.6</v>
-      </c>
-      <c r="F200" t="n">
-        <v>2650.9858</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-325264.35439514</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>189</v>
-      </c>
-      <c r="J200" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>192</v>
-      </c>
-      <c r="C201" t="n">
-        <v>192</v>
-      </c>
-      <c r="D201" t="n">
-        <v>192</v>
-      </c>
-      <c r="E201" t="n">
-        <v>192</v>
-      </c>
-      <c r="F201" t="n">
-        <v>3</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-325261.35439514</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>189.7</v>
-      </c>
-      <c r="J201" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>192</v>
-      </c>
-      <c r="C202" t="n">
-        <v>193</v>
-      </c>
-      <c r="D202" t="n">
-        <v>193.1</v>
-      </c>
-      <c r="E202" t="n">
-        <v>192</v>
-      </c>
-      <c r="F202" t="n">
-        <v>13650.7519</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-311610.60249514</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>192</v>
-      </c>
-      <c r="J202" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>193</v>
-      </c>
-      <c r="C203" t="n">
-        <v>193</v>
-      </c>
-      <c r="D203" t="n">
-        <v>193</v>
-      </c>
-      <c r="E203" t="n">
-        <v>193</v>
-      </c>
-      <c r="F203" t="n">
-        <v>357.7787</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-311610.60249514</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>193</v>
-      </c>
-      <c r="J203" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>193.8</v>
-      </c>
-      <c r="C204" t="n">
-        <v>193</v>
-      </c>
-      <c r="D204" t="n">
-        <v>193.8</v>
-      </c>
-      <c r="E204" t="n">
-        <v>193</v>
-      </c>
-      <c r="F204" t="n">
-        <v>2814.3452</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-311610.60249514</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>193</v>
-      </c>
-      <c r="J204" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>193.8</v>
-      </c>
-      <c r="C205" t="n">
-        <v>194.3</v>
-      </c>
-      <c r="D205" t="n">
-        <v>194.3</v>
-      </c>
-      <c r="E205" t="n">
-        <v>193.8</v>
-      </c>
-      <c r="F205" t="n">
-        <v>777.0348</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-310833.56769514</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>193</v>
-      </c>
-      <c r="J205" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>193</v>
-      </c>
-      <c r="C206" t="n">
-        <v>193</v>
-      </c>
-      <c r="D206" t="n">
-        <v>193</v>
-      </c>
-      <c r="E206" t="n">
-        <v>193</v>
-      </c>
-      <c r="F206" t="n">
-        <v>11244.5809</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-322078.14859514</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>194.3</v>
-      </c>
-      <c r="J206" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>193</v>
-      </c>
-      <c r="C207" t="n">
-        <v>187.6</v>
-      </c>
-      <c r="D207" t="n">
-        <v>193</v>
-      </c>
-      <c r="E207" t="n">
-        <v>187.6</v>
-      </c>
-      <c r="F207" t="n">
-        <v>15501.8359</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-337579.98449514</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>193</v>
-      </c>
-      <c r="J207" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="C208" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="D208" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="E208" t="n">
-        <v>187.4</v>
-      </c>
-      <c r="F208" t="n">
-        <v>76495.3668</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-261084.61769514</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="C209" t="n">
-        <v>192.9</v>
-      </c>
-      <c r="D209" t="n">
-        <v>192.9</v>
-      </c>
-      <c r="E209" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="F209" t="n">
-        <v>35427.5909</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-225657.02679514</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>193</v>
-      </c>
-      <c r="C210" t="n">
-        <v>194.9</v>
-      </c>
-      <c r="D210" t="n">
-        <v>195</v>
-      </c>
-      <c r="E210" t="n">
-        <v>189.1</v>
-      </c>
-      <c r="F210" t="n">
-        <v>17288.0176</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-208369.00919514</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>194.8</v>
-      </c>
-      <c r="C211" t="n">
-        <v>194.8</v>
-      </c>
-      <c r="D211" t="n">
-        <v>194.8</v>
-      </c>
-      <c r="E211" t="n">
-        <v>194.7</v>
-      </c>
-      <c r="F211" t="n">
-        <v>2367.8656</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-210736.87479514</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>194.8</v>
-      </c>
-      <c r="C212" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="D212" t="n">
-        <v>194.8</v>
-      </c>
-      <c r="E212" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="F212" t="n">
-        <v>13673.3191</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-224410.19389514</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>190</v>
-      </c>
-      <c r="C213" t="n">
-        <v>190</v>
-      </c>
-      <c r="D213" t="n">
-        <v>190</v>
-      </c>
-      <c r="E213" t="n">
-        <v>190</v>
-      </c>
-      <c r="F213" t="n">
-        <v>5704.5112</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-230114.70509514</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>190</v>
-      </c>
-      <c r="C214" t="n">
-        <v>189.1</v>
-      </c>
-      <c r="D214" t="n">
-        <v>190</v>
-      </c>
-      <c r="E214" t="n">
-        <v>189.1</v>
-      </c>
-      <c r="F214" t="n">
-        <v>5191.8782</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-235306.58329514</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>189.1</v>
-      </c>
-      <c r="C215" t="n">
-        <v>188.9</v>
-      </c>
-      <c r="D215" t="n">
-        <v>189.1</v>
-      </c>
-      <c r="E215" t="n">
-        <v>188.9</v>
-      </c>
-      <c r="F215" t="n">
-        <v>11368.7723</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-246675.35559514</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>189.1</v>
-      </c>
-      <c r="J215" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>188.9</v>
-      </c>
-      <c r="C216" t="n">
-        <v>187.4</v>
-      </c>
-      <c r="D216" t="n">
-        <v>188.9</v>
-      </c>
-      <c r="E216" t="n">
-        <v>187.4</v>
-      </c>
-      <c r="F216" t="n">
-        <v>19643.8481</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-266319.20369514</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>188.9</v>
-      </c>
-      <c r="J216" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>188.1</v>
-      </c>
-      <c r="C217" t="n">
-        <v>188.1</v>
-      </c>
-      <c r="D217" t="n">
-        <v>188.1</v>
-      </c>
-      <c r="E217" t="n">
-        <v>188.1</v>
-      </c>
-      <c r="F217" t="n">
-        <v>12666.5169</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-253652.68679514</v>
-      </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>187.4</v>
-      </c>
-      <c r="J217" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>188.1</v>
-      </c>
-      <c r="C218" t="n">
-        <v>187</v>
-      </c>
-      <c r="D218" t="n">
-        <v>188.1</v>
-      </c>
-      <c r="E218" t="n">
-        <v>187</v>
-      </c>
-      <c r="F218" t="n">
-        <v>8073.332</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-261726.01879514</v>
-      </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>188.1</v>
-      </c>
-      <c r="J218" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>189.9</v>
-      </c>
-      <c r="C219" t="n">
-        <v>189.9</v>
-      </c>
-      <c r="D219" t="n">
-        <v>189.9</v>
-      </c>
-      <c r="E219" t="n">
-        <v>189.9</v>
-      </c>
-      <c r="F219" t="n">
-        <v>958.1879</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-260767.83089514</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>187</v>
-      </c>
-      <c r="J219" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>187.1</v>
-      </c>
-      <c r="C220" t="n">
-        <v>187.1</v>
-      </c>
-      <c r="D220" t="n">
-        <v>187.1</v>
-      </c>
-      <c r="E220" t="n">
-        <v>187.1</v>
-      </c>
-      <c r="F220" t="n">
-        <v>12.3597</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-260780.19059514</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>189.9</v>
-      </c>
-      <c r="J220" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>188</v>
-      </c>
-      <c r="C221" t="n">
-        <v>188</v>
-      </c>
-      <c r="D221" t="n">
-        <v>188</v>
-      </c>
-      <c r="E221" t="n">
-        <v>188</v>
-      </c>
-      <c r="F221" t="n">
-        <v>6.1798</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-260774.01079514</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>187.1</v>
-      </c>
-      <c r="J221" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>188</v>
-      </c>
-      <c r="C222" t="n">
-        <v>188</v>
-      </c>
-      <c r="D222" t="n">
-        <v>188</v>
-      </c>
-      <c r="E222" t="n">
-        <v>188</v>
-      </c>
-      <c r="F222" t="n">
-        <v>6.1799</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-260774.01079514</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>188</v>
-      </c>
-      <c r="J222" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>189.9</v>
-      </c>
-      <c r="C223" t="n">
-        <v>189.9</v>
-      </c>
-      <c r="D223" t="n">
-        <v>189.9</v>
-      </c>
-      <c r="E223" t="n">
-        <v>189.9</v>
-      </c>
-      <c r="F223" t="n">
-        <v>3021.497</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-257752.51379514</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>188</v>
-      </c>
-      <c r="J223" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>189</v>
-      </c>
-      <c r="C224" t="n">
-        <v>191</v>
-      </c>
-      <c r="D224" t="n">
-        <v>191</v>
-      </c>
-      <c r="E224" t="n">
-        <v>189</v>
-      </c>
-      <c r="F224" t="n">
-        <v>1743.4853</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-256009.02849514</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>189.9</v>
-      </c>
-      <c r="J224" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>191</v>
-      </c>
-      <c r="C225" t="n">
-        <v>190.5</v>
-      </c>
-      <c r="D225" t="n">
-        <v>191</v>
-      </c>
-      <c r="E225" t="n">
-        <v>190.5</v>
-      </c>
-      <c r="F225" t="n">
-        <v>2926.9411</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-258935.96959514</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>191</v>
-      </c>
-      <c r="J225" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>190</v>
-      </c>
-      <c r="C226" t="n">
-        <v>190</v>
-      </c>
-      <c r="D226" t="n">
-        <v>190</v>
-      </c>
-      <c r="E226" t="n">
-        <v>190</v>
-      </c>
-      <c r="F226" t="n">
-        <v>2892.8534</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-261828.82299514</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>190.5</v>
-      </c>
-      <c r="J226" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>189.9</v>
-      </c>
-      <c r="C227" t="n">
-        <v>189.9</v>
-      </c>
-      <c r="D227" t="n">
-        <v>189.9</v>
-      </c>
-      <c r="E227" t="n">
-        <v>189.9</v>
-      </c>
-      <c r="F227" t="n">
-        <v>878.0877</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-262706.91069514</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>190</v>
-      </c>
-      <c r="J227" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>189.9</v>
-      </c>
-      <c r="C228" t="n">
-        <v>187.4</v>
-      </c>
-      <c r="D228" t="n">
-        <v>189.9</v>
-      </c>
-      <c r="E228" t="n">
-        <v>187.4</v>
-      </c>
-      <c r="F228" t="n">
-        <v>9418.927900000001</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-272125.83859514</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>189.9</v>
-      </c>
-      <c r="J228" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8242,7 +8008,7 @@
         <v>187.4</v>
       </c>
       <c r="J229" t="n">
-        <v>191.1</v>
+        <v>190.5</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8283,7 +8049,7 @@
         <v>187.4</v>
       </c>
       <c r="J230" t="n">
-        <v>191.1</v>
+        <v>190.5</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8324,7 +8090,7 @@
         <v>187.6</v>
       </c>
       <c r="J231" t="n">
-        <v>191.1</v>
+        <v>190.5</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8365,7 +8131,7 @@
         <v>189.9</v>
       </c>
       <c r="J232" t="n">
-        <v>191.1</v>
+        <v>190.5</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8406,7 +8172,7 @@
         <v>189</v>
       </c>
       <c r="J233" t="n">
-        <v>191.1</v>
+        <v>190.5</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8447,7 +8213,7 @@
         <v>190</v>
       </c>
       <c r="J234" t="n">
-        <v>191.1</v>
+        <v>190.5</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8488,7 +8254,7 @@
         <v>189.9</v>
       </c>
       <c r="J235" t="n">
-        <v>191.1</v>
+        <v>190.5</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8523,13 +8289,11 @@
         <v>-263556.9883951401</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>192</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>191.1</v>
+        <v>190.5</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8564,13 +8328,11 @@
         <v>-233849.1077951401</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>192</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>191.1</v>
+        <v>190.5</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -8609,7 +8371,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>191.1</v>
+        <v>190.5</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -8644,13 +8406,11 @@
         <v>-140159.5487951401</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>195.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>191.1</v>
+        <v>190.5</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -8689,7 +8449,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>191.1</v>
+        <v>190.5</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -8728,7 +8488,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>191.1</v>
+        <v>190.5</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -8767,7 +8527,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>191.1</v>
+        <v>190.5</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -8806,7 +8566,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>191.1</v>
+        <v>190.5</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -8845,7 +8605,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>191.1</v>
+        <v>190.5</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -8884,7 +8644,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>191.1</v>
+        <v>190.5</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -8923,7 +8683,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>191.1</v>
+        <v>190.5</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -8962,7 +8722,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>191.1</v>
+        <v>190.5</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -8997,21 +8757,23 @@
         <v>-164536.4017678641</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>191.1</v>
+        <v>190.5</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+        <v>1.070590551181102</v>
+      </c>
+      <c r="M248" t="n">
+        <v>1.123258306538049</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9039,14 +8801,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9078,14 +8834,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9117,14 +8867,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9156,14 +8900,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9195,14 +8933,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9234,14 +8966,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9273,14 +8999,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9312,14 +9032,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9351,14 +9065,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9390,14 +9098,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9429,14 +9131,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9468,14 +9164,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9507,14 +9197,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9546,14 +9230,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9582,17 +9260,11 @@
         <v>-174499.4964479031</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9621,17 +9293,11 @@
         <v>-174556.4564479031</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9660,17 +9326,11 @@
         <v>-174556.4564479031</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9699,17 +9359,11 @@
         <v>-181184.2040479031</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9738,17 +9392,11 @@
         <v>-188926.6576479031</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9777,17 +9425,11 @@
         <v>-188875.6976479031</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9816,17 +9458,11 @@
         <v>-194351.8033479031</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9855,17 +9491,11 @@
         <v>-194431.3110479031</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9894,17 +9524,11 @@
         <v>-194428.3110479031</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9933,17 +9557,11 @@
         <v>-178155.5199479031</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9972,17 +9590,11 @@
         <v>-191887.2877911261</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10011,17 +9623,11 @@
         <v>-193645.1511911261</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10050,17 +9656,11 @@
         <v>-193645.1511911261</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10089,17 +9689,11 @@
         <v>-193645.1511911261</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10128,19 +9722,11 @@
         <v>-193645.1511911261</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>202.8</v>
-      </c>
-      <c r="J277" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10169,17 +9755,11 @@
         <v>-196673.8950911261</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10208,17 +9788,11 @@
         <v>-187178.2580911261</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10247,17 +9821,11 @@
         <v>-187178.2580911261</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10286,17 +9854,11 @@
         <v>-191769.3731911261</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10325,17 +9887,11 @@
         <v>-192135.9630911261</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10367,14 +9923,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10406,14 +9956,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10445,14 +9989,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10484,14 +10022,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10523,14 +10055,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10562,14 +10088,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10601,14 +10121,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10640,14 +10154,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10679,14 +10187,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10718,14 +10220,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10757,14 +10253,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10796,14 +10286,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10835,14 +10319,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10874,14 +10352,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10913,14 +10385,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10952,14 +10418,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10991,14 +10451,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11030,14 +10484,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11069,14 +10517,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11108,14 +10550,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11147,14 +10583,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11186,14 +10616,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11225,14 +10649,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11264,14 +10682,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11303,14 +10715,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11342,14 +10748,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11381,14 +10781,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11420,14 +10814,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11459,14 +10847,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11498,14 +10880,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11537,14 +10913,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11576,14 +10946,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11615,14 +10979,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11654,14 +11012,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11693,14 +11045,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11732,14 +11078,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11771,14 +11111,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11810,14 +11144,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11849,14 +11177,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11888,14 +11210,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11927,14 +11243,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11966,14 +11276,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12005,14 +11309,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12044,14 +11342,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12083,14 +11375,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12122,14 +11408,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12161,14 +11441,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12200,14 +11474,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12239,14 +11507,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12278,14 +11540,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12317,14 +11573,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12356,14 +11606,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12395,14 +11639,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12434,14 +11672,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12473,14 +11705,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12512,14 +11738,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12551,14 +11771,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12590,14 +11804,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12629,14 +11837,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12668,14 +11870,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12707,14 +11903,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12746,14 +11936,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12785,14 +11969,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12824,14 +12002,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12863,14 +12035,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12902,14 +12068,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12941,14 +12101,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12980,14 +12134,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13019,14 +12167,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13058,14 +12200,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13097,14 +12233,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13136,14 +12266,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13175,14 +12299,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13214,14 +12332,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13253,14 +12365,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13292,14 +12398,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13331,14 +12431,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13370,14 +12464,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13409,14 +12497,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13445,17 +12527,11 @@
         <v>-135866.0610620581</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13484,17 +12560,11 @@
         <v>-135866.0610620581</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13523,17 +12593,11 @@
         <v>-135971.5297620581</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13562,17 +12626,11 @@
         <v>-117759.8962362551</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13601,17 +12659,11 @@
         <v>-117813.5101362551</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13640,17 +12692,11 @@
         <v>-126327.8824362551</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13679,17 +12725,11 @@
         <v>-127298.4242362551</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13718,17 +12758,11 @@
         <v>-127298.4242362551</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13757,17 +12791,11 @@
         <v>-125753.7335604421</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13796,17 +12824,11 @@
         <v>-128889.4460604421</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13835,17 +12857,11 @@
         <v>-128889.4460604421</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13877,14 +12893,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13916,14 +12926,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13955,14 +12959,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13994,14 +12992,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14033,14 +13025,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14072,14 +13058,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14111,14 +13091,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14150,14 +13124,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14189,14 +13157,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14228,14 +13190,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14267,14 +13223,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14306,14 +13256,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14342,17 +13286,11 @@
         <v>-74358.9018604421</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14381,17 +13319,11 @@
         <v>-18937.9040604421</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14423,14 +13355,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14462,14 +13388,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14501,14 +13421,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14540,14 +13454,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14579,14 +13487,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14618,14 +13520,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14657,14 +13553,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14696,14 +13586,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14735,14 +13619,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14774,14 +13652,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14813,14 +13685,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14852,14 +13718,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14891,14 +13751,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14930,14 +13784,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14969,14 +13817,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15005,23 +13847,15 @@
         <v>45445.6963698109</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
-        <v>1.180243328100471</v>
-      </c>
-      <c r="M402" t="n">
-        <v>1.123258306538049</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -15046,7 +13880,7 @@
         <v>91167.6557305349</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15079,7 +13913,7 @@
         <v>65907.9408215119</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15112,7 +13946,7 @@
         <v>59283.8705215119</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15178,7 +14012,7 @@
         <v>52320.81992151191</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15211,7 +14045,7 @@
         <v>52328.05732151191</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15244,7 +14078,7 @@
         <v>52321.47322151191</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15277,7 +14111,7 @@
         <v>50123.81612151191</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15310,7 +14144,7 @@
         <v>38587.41252151191</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15343,7 +14177,7 @@
         <v>77213.20542151191</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15376,7 +14210,7 @@
         <v>76444.40235894092</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15409,7 +14243,7 @@
         <v>64028.70795894092</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15442,7 +14276,7 @@
         <v>64032.00675894092</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15475,7 +14309,7 @@
         <v>64025.09785894091</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15508,7 +14342,7 @@
         <v>62962.31545894091</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15574,7 +14408,7 @@
         <v>64547.20925894091</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15607,7 +14441,7 @@
         <v>67091.0357324059</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15640,7 +14474,7 @@
         <v>43159.1458481959</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15673,7 +14507,7 @@
         <v>41764.4538481959</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15772,7 +14606,7 @@
         <v>34057.7083481959</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15805,7 +14639,7 @@
         <v>36798.7610481959</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15838,7 +14672,7 @@
         <v>34232.8992481959</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15904,7 +14738,7 @@
         <v>41169.1035481959</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15937,7 +14771,7 @@
         <v>37476.67914819589</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15970,7 +14804,7 @@
         <v>61867.51974819589</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16003,7 +14837,7 @@
         <v>61341.99514819589</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16036,7 +14870,7 @@
         <v>61341.99514819589</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16069,7 +14903,7 @@
         <v>1492.257948195889</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16102,7 +14936,7 @@
         <v>-33247.78125180411</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16135,7 +14969,7 @@
         <v>-33188.82145180411</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16168,7 +15002,7 @@
         <v>-5779.450451804114</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16201,7 +15035,7 @@
         <v>-5885.317051804114</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16300,7 +15134,7 @@
         <v>-15062.10225180412</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16366,7 +15200,7 @@
         <v>-20439.99465180411</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16399,7 +15233,7 @@
         <v>-20414.47755180411</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16432,7 +15266,7 @@
         <v>-33906.24465180411</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16465,7 +15299,7 @@
         <v>-33737.19125180411</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16498,7 +15332,7 @@
         <v>-33737.19125180411</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16531,7 +15365,7 @@
         <v>-33732.59125180412</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16564,7 +15398,7 @@
         <v>-46178.91225180411</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16597,7 +15431,7 @@
         <v>-42226.00325180411</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16630,7 +15464,7 @@
         <v>-31682.24295180411</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16663,7 +15497,7 @@
         <v>-30942.20035180411</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16696,7 +15530,7 @@
         <v>-30942.20035180411</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16729,7 +15563,7 @@
         <v>-26470.98205180411</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16762,7 +15596,7 @@
         <v>-36594.0680518041</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16795,7 +15629,7 @@
         <v>-34503.10715180411</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16828,7 +15662,7 @@
         <v>-38980.6999518041</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16861,7 +15695,7 @@
         <v>-40644.74745180411</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17521,7 +16355,7 @@
         <v>-12202.71993986611</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17554,7 +16388,7 @@
         <v>-12202.71993986611</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17851,7 +16685,7 @@
         <v>13683.32145897089</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17884,7 +16718,7 @@
         <v>41318.25545897089</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17917,7 +16751,7 @@
         <v>41318.25545897089</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17950,7 +16784,7 @@
         <v>41250.25365897089</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17983,7 +16817,7 @@
         <v>12853.66775897089</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18016,7 +16850,7 @@
         <v>17004.77965897089</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18049,7 +16883,7 @@
         <v>16968.77965897089</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18082,7 +16916,7 @@
         <v>16570.47465897089</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18115,7 +16949,7 @@
         <v>18681.99895897089</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18148,7 +16982,7 @@
         <v>18528.39275897089</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18181,7 +17015,7 @@
         <v>18528.39275897089</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18214,7 +17048,7 @@
         <v>18337.06615897089</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18247,7 +17081,7 @@
         <v>18891.5364589709</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18280,7 +17114,7 @@
         <v>18891.5364589709</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18313,7 +17147,7 @@
         <v>19180.9328589709</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18346,7 +17180,7 @@
         <v>19950.7227589709</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18379,7 +17213,7 @@
         <v>20377.7884589709</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18412,7 +17246,7 @@
         <v>20377.7884589709</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18445,7 +17279,7 @@
         <v>20614.8597589709</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18478,7 +17312,7 @@
         <v>20614.8597589709</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18511,7 +17345,7 @@
         <v>18227.9569589709</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18544,7 +17378,7 @@
         <v>18688.30275897089</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18577,7 +17411,7 @@
         <v>19870.4648589709</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18610,7 +17444,7 @@
         <v>19420.4648589709</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18643,7 +17477,7 @@
         <v>19420.4648589709</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18676,7 +17510,7 @@
         <v>18287.6699552689</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18709,7 +17543,7 @@
         <v>21109.8002432299</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19204,7 +18038,7 @@
         <v>37804.3510515669</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19237,7 +18071,7 @@
         <v>37454.9871515669</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19270,7 +18104,7 @@
         <v>36983.2354515669</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19303,7 +18137,7 @@
         <v>38435.2947515669</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19336,7 +18170,7 @@
         <v>38435.2947515669</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19369,7 +18203,7 @@
         <v>35703.0428515669</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19402,7 +18236,7 @@
         <v>35712.2275515669</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19435,7 +18269,7 @@
         <v>35173.0025515669</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19468,7 +18302,7 @@
         <v>26228.6629515669</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19501,7 +18335,7 @@
         <v>26698.6659515669</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19534,7 +18368,7 @@
         <v>26601.0034515669</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19567,7 +18401,7 @@
         <v>26534.3490515669</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19600,7 +18434,7 @@
         <v>21358.7263515669</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19633,7 +18467,7 @@
         <v>21358.7263515669</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19666,7 +18500,7 @@
         <v>-394.1115484330985</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19699,7 +18533,7 @@
         <v>1851.816920685902</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19732,7 +18566,7 @@
         <v>1854.116920685902</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19765,7 +18599,7 @@
         <v>-299.2340793140986</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19798,7 +18632,7 @@
         <v>-296.9340793140986</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19831,7 +18665,7 @@
         <v>2097.956520685902</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19864,7 +18698,7 @@
         <v>2097.956520685902</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19897,7 +18731,7 @@
         <v>1020.363420685901</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19930,7 +18764,7 @@
         <v>950.3112206859015</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19963,7 +18797,7 @@
         <v>-1491.238079314099</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19996,7 +18830,7 @@
         <v>-2050.968479314099</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20029,7 +18863,7 @@
         <v>-10286.8672793141</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20062,7 +18896,7 @@
         <v>-10284.5672793141</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20095,7 +18929,7 @@
         <v>-30834.9836793141</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20128,7 +18962,7 @@
         <v>-30834.9836793141</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20161,7 +18995,7 @@
         <v>-30883.3836793141</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20194,7 +19028,7 @@
         <v>-52194.1290793141</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20227,7 +19061,7 @@
         <v>-51047.0024793141</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20260,7 +19094,7 @@
         <v>-28852.8338793141</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20293,7 +19127,7 @@
         <v>-40724.44217931409</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20326,7 +19160,7 @@
         <v>-39833.23807931409</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20359,7 +19193,7 @@
         <v>-38823.92667931409</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20392,7 +19226,7 @@
         <v>-39880.41277931409</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20425,7 +19259,7 @@
         <v>-40353.82647931409</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20458,7 +19292,7 @@
         <v>-18089.42997931409</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20491,7 +19325,7 @@
         <v>-20410.60397931409</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20524,7 +19358,7 @@
         <v>-31660.91977931409</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20557,7 +19391,7 @@
         <v>-28574.20177931409</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20590,7 +19424,7 @@
         <v>-28574.20177931409</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20623,7 +19457,7 @@
         <v>-38590.66027931409</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20656,7 +19490,7 @@
         <v>-38569.84797931409</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20689,7 +19523,7 @@
         <v>-36377.13697931409</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20722,7 +19556,7 @@
         <v>-15761.65687931409</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -23307,6 +22141,6 @@
       <c r="M653" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>